--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N2">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q2">
-        <v>13.57036675437066</v>
+        <v>38.20373634721622</v>
       </c>
       <c r="R2">
-        <v>122.133300789336</v>
+        <v>343.833627124946</v>
       </c>
       <c r="S2">
-        <v>0.1945715533087774</v>
+        <v>0.2838792536076074</v>
       </c>
       <c r="T2">
-        <v>0.1945715533087774</v>
+        <v>0.2838792536076075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N3">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q3">
-        <v>21.53624166556767</v>
+        <v>40.71880702809111</v>
       </c>
       <c r="R3">
-        <v>193.826174990109</v>
+        <v>366.46926325282</v>
       </c>
       <c r="S3">
-        <v>0.3087860534022128</v>
+        <v>0.3025679070201464</v>
       </c>
       <c r="T3">
-        <v>0.3087860534022128</v>
+        <v>0.3025679070201465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.058683666666667</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>12.176051</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.2885676612136945</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.2885676612136945</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.916802666666666</v>
+        <v>0.010998</v>
       </c>
       <c r="N4">
-        <v>5.750407999999999</v>
+        <v>0.032994</v>
       </c>
       <c r="O4">
-        <v>0.3865473586068074</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P4">
-        <v>0.3865473586068073</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q4">
-        <v>7.779695675423111</v>
+        <v>0.104988451386</v>
       </c>
       <c r="R4">
-        <v>70.01726107880799</v>
+        <v>0.9448960624740002</v>
       </c>
       <c r="S4">
-        <v>0.1115450672214977</v>
+        <v>0.0007801342503780518</v>
       </c>
       <c r="T4">
-        <v>0.1115450672214977</v>
+        <v>0.0007801342503780521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.041975666666667</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N5">
-        <v>9.125927000000001</v>
+        <v>12.006026</v>
       </c>
       <c r="O5">
-        <v>0.6134526413931928</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P5">
-        <v>0.6134526413931927</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q5">
-        <v>12.34641695269745</v>
+        <v>16.24288720925844</v>
       </c>
       <c r="R5">
-        <v>111.117752574277</v>
+        <v>146.185984883326</v>
       </c>
       <c r="S5">
-        <v>0.1770225939921969</v>
+        <v>0.1206954905009659</v>
       </c>
       <c r="T5">
-        <v>0.1770225939921969</v>
+        <v>0.1206954905009659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.463241333333334</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H6">
-        <v>7.389724000000001</v>
+        <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.1751335775198961</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.175133577519896</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916802666666666</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N6">
-        <v>5.750407999999999</v>
+        <v>12.79642</v>
       </c>
       <c r="O6">
-        <v>0.3865473586068074</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P6">
-        <v>0.3865473586068073</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q6">
-        <v>4.72154755637689</v>
+        <v>17.31220694860222</v>
       </c>
       <c r="R6">
-        <v>42.493928007392</v>
+        <v>155.80986253742</v>
       </c>
       <c r="S6">
-        <v>0.06769742179367637</v>
+        <v>0.1286412496988071</v>
       </c>
       <c r="T6">
-        <v>0.06769742179367634</v>
+        <v>0.1286412496988071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.463241333333334</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H7">
-        <v>7.389724000000001</v>
+        <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.1751335775198961</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.175133577519896</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.041975666666667</v>
+        <v>0.010998</v>
       </c>
       <c r="N7">
-        <v>9.125927000000001</v>
+        <v>0.032994</v>
       </c>
       <c r="O7">
-        <v>0.6134526413931928</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P7">
-        <v>0.6134526413931927</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q7">
-        <v>7.493120197127558</v>
+        <v>0.04463740296600001</v>
       </c>
       <c r="R7">
-        <v>67.43808177414802</v>
+        <v>0.4017366266940001</v>
       </c>
       <c r="S7">
-        <v>0.1074361557262197</v>
+        <v>0.0003316856896352605</v>
       </c>
       <c r="T7">
-        <v>0.1074361557262197</v>
+        <v>0.0003316856896352606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.463315</v>
+        <v>2.210442</v>
       </c>
       <c r="H8">
-        <v>1.389945</v>
+        <v>6.631326</v>
       </c>
       <c r="I8">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J8">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N8">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O8">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P8">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q8">
-        <v>0.8880834275066665</v>
+        <v>8.846208041164001</v>
       </c>
       <c r="R8">
-        <v>7.992750847559999</v>
+        <v>79.61587237047601</v>
       </c>
       <c r="S8">
-        <v>0.01273331628285596</v>
+        <v>0.06573322863396416</v>
       </c>
       <c r="T8">
-        <v>0.01273331628285596</v>
+        <v>0.06573322863396419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.463315</v>
+        <v>2.210442</v>
       </c>
       <c r="H9">
-        <v>1.389945</v>
+        <v>6.631326</v>
       </c>
       <c r="I9">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J9">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N9">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O9">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P9">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q9">
-        <v>1.409392956001667</v>
+        <v>9.428581405880001</v>
       </c>
       <c r="R9">
-        <v>12.684536604015</v>
+        <v>84.85723265292</v>
       </c>
       <c r="S9">
-        <v>0.02020783827256342</v>
+        <v>0.07006065133927178</v>
       </c>
       <c r="T9">
-        <v>0.02020783827256342</v>
+        <v>0.07006065133927181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.210442</v>
+      </c>
+      <c r="H10">
+        <v>6.631326</v>
+      </c>
+      <c r="I10">
+        <v>0.1359745227725727</v>
+      </c>
+      <c r="J10">
+        <v>0.1359745227725727</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010998</v>
+      </c>
+      <c r="N10">
+        <v>0.032994</v>
+      </c>
+      <c r="O10">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P10">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q10">
+        <v>0.024310441116</v>
+      </c>
+      <c r="R10">
+        <v>0.218793970044</v>
+      </c>
+      <c r="S10">
+        <v>0.0001806427993366843</v>
+      </c>
+      <c r="T10">
+        <v>0.0001806427993366843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.323088</v>
+      </c>
+      <c r="I11">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J11">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.002008666666667</v>
+      </c>
+      <c r="N11">
+        <v>12.006026</v>
+      </c>
+      <c r="O11">
+        <v>0.4834231243738785</v>
+      </c>
+      <c r="P11">
+        <v>0.4834231243738787</v>
+      </c>
+      <c r="Q11">
+        <v>1.765003214254222</v>
+      </c>
+      <c r="R11">
+        <v>15.885028928288</v>
+      </c>
+      <c r="S11">
+        <v>0.01311515163134106</v>
+      </c>
+      <c r="T11">
+        <v>0.01311515163134106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.323088</v>
+      </c>
+      <c r="I12">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J12">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.265473333333333</v>
+      </c>
+      <c r="N12">
+        <v>12.79642</v>
+      </c>
+      <c r="O12">
+        <v>0.5152483708764571</v>
+      </c>
+      <c r="P12">
+        <v>0.5152483708764573</v>
+      </c>
+      <c r="Q12">
+        <v>1.881198860551111</v>
+      </c>
+      <c r="R12">
+        <v>16.93078974496</v>
+      </c>
+      <c r="S12">
+        <v>0.01397856281823189</v>
+      </c>
+      <c r="T12">
+        <v>0.0139785628182319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.323088</v>
+      </c>
+      <c r="I13">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J13">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.010998</v>
+      </c>
+      <c r="N13">
+        <v>0.032994</v>
+      </c>
+      <c r="O13">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P13">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q13">
+        <v>0.004850440608</v>
+      </c>
+      <c r="R13">
+        <v>0.043653965472</v>
+      </c>
+      <c r="S13">
+        <v>3.60420103141928E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.604201031419282E-05</v>
       </c>
     </row>
   </sheetData>
